--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7196FA24-8184-420B-95FF-67E30918E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D5AF-E06B-45D8-80D5-DD66B0EC86B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Focal point</t>
   </si>
@@ -141,9 +141,6 @@
     <t>3-FA</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Target species</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -719,9 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -754,6 +754,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -802,28 +830,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -834,10 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1180,41 +1182,41 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>34</v>
+      <c r="G4" s="47" t="s">
+        <v>39</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
@@ -1247,25 +1249,25 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
@@ -1278,7 +1280,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="36" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
@@ -1360,7 +1362,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="60" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="19"/>
@@ -1368,18 +1370,20 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
-      <c r="C19" s="80" t="s">
-        <v>39</v>
+      <c r="C19" s="60" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="19"/>
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="19"/>
@@ -1428,8 +1432,8 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
-      <c r="C25" s="80" t="s">
-        <v>35</v>
+      <c r="C25" s="60" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="36"/>
@@ -1448,7 +1452,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="19"/>
@@ -1459,7 +1463,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="19"/>
@@ -1470,8 +1474,8 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
-      <c r="C29" s="80" t="s">
-        <v>37</v>
+      <c r="C29" s="60" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="36"/>
@@ -1481,7 +1485,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="19"/>
@@ -1497,7 +1501,7 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -1543,11 +1547,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1564,7 +1568,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LXVB05rpTgraOGFTB72BgWP3pKTvccJ1MprqPnRAzZlNtra0t70MFw1xNBsU4ywRYfKRq6boDzdHAyhwjSZ2Ig==" saltValue="Ez9W96cpGNwq9NB1EeAxbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7C+1d9i8yf1tSNBQod4vdfVclkDhfogeg112HcA9xaM4CzMBXB+/A6RvwpOUY3kVQQUFQ/5K+yfNLZ5GWKb4+w==" saltValue="6f3iC1ej6l2mo7cT6tQX3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C8:D8"/>
@@ -1572,7 +1576,7 @@
     <mergeCell ref="B2:H3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C30 C25 F18 C19:C20" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C30 C25 F18 C19:C20 F19" xr:uid="{1EDF3C0A-2C62-4105-B534-7B9FBB507AE1}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1585,9 +1589,10 @@
     <hyperlink ref="C30" r:id="rId6" location="coverageTypes" xr:uid="{DB80439C-6AB4-49D4-A45E-34DB078DCBB9}"/>
     <hyperlink ref="F18" r:id="rId7" location="fisheries" xr:uid="{C828DCDF-BE3B-4279-ADB0-609967E9F951}"/>
     <hyperlink ref="C29" r:id="rId8" location="raisings" xr:uid="{6775FD11-45EA-49B5-A103-289BA25E66D9}"/>
+    <hyperlink ref="F19" r:id="rId9" location="species" xr:uid="{FD54ABE5-1068-47CD-8D84-F6156FA52F8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1625,270 +1630,270 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="61"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="68"/>
     </row>
     <row r="3" spans="2:59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="64"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="71"/>
     </row>
     <row r="4" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="65" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="76" t="s">
-        <v>36</v>
+      <c r="I4" s="73"/>
+      <c r="J4" s="77" t="s">
+        <v>35</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="79"/>
     </row>
     <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="54"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="53"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -4842,7 +4847,7 @@
       <c r="BG55" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BtqoBp3JJwixRNlniVbSoOm0IhvDDIRZW6He5sQm6cxYgg2lvKeTKIvFOpZ2xM1liDia1QmvAId4Vtoiksvbfw==" saltValue="WLjE21+WVQc+jGCQhVFLDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xN6VYwnkzHlNX+22fG0RNz5ehi148Fh382wYx1+EsQMzJbl2eGccP/K5PCEJPf0ksNF9FF0CX2illc34q0OBqQ==" saltValue="YbzrPwqdFHgkYcVYISGkFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:D4"/>

--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D5AF-E06B-45D8-80D5-DD66B0EC86B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C7D02-0590-4A6E-A808-DCCBDBE63F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="32715" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1819,7 +1819,7 @@
       <c r="BF4" s="78"/>
       <c r="BG4" s="79"/>
     </row>
-    <row r="5" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
         <v>12</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="BG55" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xN6VYwnkzHlNX+22fG0RNz5ehi148Fh382wYx1+EsQMzJbl2eGccP/K5PCEJPf0ksNF9FF0CX2illc34q0OBqQ==" saltValue="YbzrPwqdFHgkYcVYISGkFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IL8pRhDtGtskRQPDCqSjVhcfcRkm2285uEuxr8FpA4SJtxS4DudAZFKb4gdEQH+tYyp28IIeisHMSNiYUi4kbg==" saltValue="ZcD5LeJo9VkEeP6PSFwHlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:D4"/>

--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C7D02-0590-4A6E-A808-DCCBDBE63F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E121DE5-5DAC-4163-92A9-6D324D413205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +228,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -735,13 +754,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -754,28 +766,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -830,15 +820,44 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -847,7 +866,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1182,24 +1209,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
@@ -1249,15 +1276,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1389,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="19"/>
@@ -1370,12 +1397,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="52" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="19"/>
@@ -1383,7 +1410,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="19"/>
@@ -1432,7 +1459,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="52" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="19"/>
@@ -1452,7 +1479,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="19"/>
@@ -1463,7 +1490,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="52" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="19"/>
@@ -1474,7 +1501,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="52" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="19"/>
@@ -1485,7 +1512,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="52" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="19"/>
@@ -1547,11 +1574,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,142 +1657,142 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="68"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="60"/>
     </row>
     <row r="3" spans="2:59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="70"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="71"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="63"/>
     </row>
     <row r="4" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="74" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="72" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="77" t="s">
         <v>35</v>
       </c>
@@ -1820,80 +1847,80 @@
       <c r="BG4" s="79"/>
     </row>
     <row r="5" spans="2:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="53"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="51"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -4847,7 +4874,7 @@
       <c r="BG55" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IL8pRhDtGtskRQPDCqSjVhcfcRkm2285uEuxr8FpA4SJtxS4DudAZFKb4gdEQH+tYyp28IIeisHMSNiYUi4kbg==" saltValue="ZcD5LeJo9VkEeP6PSFwHlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i6fFKpRjCRKHS3rbKaHn6IUSOQkWe+LvP8hRuX6pFEAaVTf21kjFOTJqyJKlY0qZc4EyUjfsRcpN5DHBZFZmJA==" saltValue="XO3eyHf5P0fScbg2ulwwMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:D4"/>
@@ -4855,6 +4882,11 @@
     <mergeCell ref="J4:BG4"/>
     <mergeCell ref="B2:BG3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:BG1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:G5 J4:BG4" xr:uid="{43B18C42-5CB4-4771-BC04-2A35D1069D16}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E121DE5-5DAC-4163-92A9-6D324D413205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D5789-DD64-442B-A233-318F5B634EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -772,6 +772,35 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -819,35 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1209,24 +1209,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
@@ -1276,15 +1276,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,11 +1574,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1657,142 +1657,142 @@
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="60"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="68"/>
     </row>
     <row r="3" spans="2:59" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="63"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="71"/>
     </row>
     <row r="4" spans="2:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="64" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="77" t="s">
         <v>35</v>
       </c>
@@ -1847,28 +1847,28 @@
       <c r="BG4" s="79"/>
     </row>
     <row r="5" spans="2:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="56" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="49"/>

--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D5789-DD64-442B-A233-318F5B634EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A396DF4-1EE5-458F-8C2C-D178498F8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/forms/Form-3FA.xlsx
+++ b/forms/Form-3FA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A396DF4-1EE5-458F-8C2C-D178498F8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA0A57-3C68-4963-9F21-3117572F166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -4874,7 +4874,7 @@
       <c r="BG55" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i6fFKpRjCRKHS3rbKaHn6IUSOQkWe+LvP8hRuX6pFEAaVTf21kjFOTJqyJKlY0qZc4EyUjfsRcpN5DHBZFZmJA==" saltValue="XO3eyHf5P0fScbg2ulwwMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qIwSelTpP4CAPpFzmGOBo4FnNk6BjEf5D6szSuw9jx3HoXYdovPSUoOMK7eF9VvE/Gr+fjdvzoHI/6bbdyL/8A==" saltValue="qqYq0Ixi2qq2GrqOMtSTVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:D4"/>
@@ -4898,7 +4898,7 @@
     <hyperlink ref="E5" r:id="rId3" location="FADtypes" xr:uid="{76B3CD82-5176-49C0-BC15-F45A00C8FD4E}"/>
     <hyperlink ref="F5" r:id="rId4" location="FADactivityTypes" xr:uid="{8F8E1F1A-DC91-4B00-B74E-B8A4FF6156FE}"/>
     <hyperlink ref="J4:BG4" r:id="rId5" location="species" display="Catches by species (in live weight equivalent, t)" xr:uid="{04C1BAD7-E6F4-44F7-87DE-64B6A055CCE1}"/>
-    <hyperlink ref="G5" r:id="rId6" location="FADactivityTypes" xr:uid="{95DD3ACE-AE56-4113-9353-347D7EA1C5AF}"/>
+    <hyperlink ref="G5" r:id="rId6" location="FADownerships" xr:uid="{95DD3ACE-AE56-4113-9353-347D7EA1C5AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
